--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2974028941466558</v>
+        <v>-0.3357664143492041</v>
       </c>
       <c r="D2">
-        <v>0.7661711938313118</v>
+        <v>0.7391102547729465</v>
       </c>
       <c r="E2">
         <v>4.001127937737089</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4934264888999295</v>
+        <v>-0.8729098101749544</v>
       </c>
       <c r="D3">
-        <v>0.6217327732074263</v>
+        <v>0.3888356242339921</v>
       </c>
       <c r="E3">
         <v>4.001127937737089</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.477882864414263</v>
+        <v>-1.711101559166005</v>
       </c>
       <c r="D4">
-        <v>0.01324897974523442</v>
+        <v>0.09617269127639672</v>
       </c>
       <c r="E4">
         <v>4.001127937737089</v>
@@ -505,7 +505,7 @@
         <v>4.940749860298723</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.536950971271477</v>
+        <v>-2.311077132584924</v>
       </c>
       <c r="D5">
-        <v>0.01121217281826237</v>
+        <v>0.02702252637953406</v>
       </c>
       <c r="E5">
         <v>4.001127937737089</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2908032152893719</v>
+        <v>-0.2517423737536986</v>
       </c>
       <c r="D6">
-        <v>0.7712137939785786</v>
+        <v>0.8027556796080899</v>
       </c>
       <c r="E6">
         <v>4.106177692097941</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.792127043489139</v>
+        <v>-1.2151560373487</v>
       </c>
       <c r="D7">
-        <v>0.07317259068608739</v>
+        <v>0.2326778232093949</v>
       </c>
       <c r="E7">
         <v>4.106177692097941</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.403648818248601</v>
+        <v>-1.897962250736629</v>
       </c>
       <c r="D8">
-        <v>0.01626825650710373</v>
+        <v>0.06621788816709984</v>
       </c>
       <c r="E8">
         <v>4.106177692097941</v>
@@ -609,7 +609,7 @@
         <v>5.202498480913046</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.594655491084502</v>
+        <v>-1.648157822640913</v>
       </c>
       <c r="D9">
-        <v>0.1108520101390538</v>
+        <v>0.1085321923500313</v>
       </c>
       <c r="E9">
         <v>4.202585081553314</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.512293092320204</v>
+        <v>-2.202916773033312</v>
       </c>
       <c r="D10">
-        <v>0.0120259366775517</v>
+        <v>0.03447818809248693</v>
       </c>
       <c r="E10">
         <v>4.202585081553314</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.4459887230092974</v>
+        <v>-0.6161472385992606</v>
       </c>
       <c r="D11">
-        <v>0.655624553817002</v>
+        <v>0.5419008123366111</v>
       </c>
       <c r="E11">
         <v>4.940749860298723</v>
